--- a/biology/Médecine/Henryk_Jordan/Henryk_Jordan.xlsx
+++ b/biology/Médecine/Henryk_Jordan/Henryk_Jordan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henryk Jordan (né le 23 juillet 1842 à Przemyśl – mort le 16 mai 1907 à Cracovie) est un médecin, philanthrope et professeur polonais. Pionnier de l'éducation physique et sportive en Pologne, il enseigne l'obstétrique à l'Université jagellonne de Cracovie à partir de 1895. Il est reconnu pour la création de terrains de jeux pour les enfants, appelés les jardins Jordan (en).
 </t>
@@ -511,7 +523,9 @@
           <t>Jeunesse et formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Henryk Jordan naît dans le village de Zakliczyn au sein d'une famille noble et pauvre de l'aristocratie polonaise. Son père, Bonifacy Jordan, donne des leçons privées alors que sa mère Salomea Wędrychowska est ménagère.
 Jordan fait des études secondaires à Tarnopol et Tarnów.  En 1861, il est menacé d'expulsion après avoir participé à une manifestation pro-polonaise. En 1862, il déménage à Trieste et termine ses études secondaires en italien une année plus tard, avec mentions.
@@ -544,7 +558,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Jordan commence sa carrière de médecine aux États-Unis et ouvre parallèlement une école pour sage-femme. De retour en Europe, il travaille d'abord en Angleterre, puis en Allemagne, avant de revenir à Cracovie.
 Jordan y exerce diverses fonctions. De 1895 à 1901, il est député de la ville à la Diète de Pologne. À la même époque, il est à la tête de la Société gynécologique de Cracovie, de la Society of Medical Doctors et de l'Association polonaise des professeurs des études supérieures (en). Il intègre notamment l'éducation physique au cursus de toutes les écoles polonaises.
